--- a/output/prerunbooks.xlsx
+++ b/output/prerunbooks.xlsx
@@ -495,12 +495,12 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>attributes_run_type</t>
+          <t>runbook_run_type</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>attributes_stage</t>
+          <t>runbook_stage</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0 d, 12 hr, 10 min, 14 s</t>
+          <t>12 hr, 10 min</t>
         </is>
       </c>
     </row>
@@ -828,7 +828,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0 d, 13 hr, 48 min, 9 s</t>
+          <t>13 hr, 48 min</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 6 min, 9 s</t>
+          <t>6 min, 9 s</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 16 min, 0 s</t>
+          <t>16 min</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 0 min, 5 s</t>
+          <t>5 s</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 0 min, 4 s</t>
+          <t>4 s</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1 d, 8 hr, 50 min, 52 s</t>
+          <t>1 d, 8 hr</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>0 d, 16 hr, 58 min, 6 s</t>
+          <t>16 hr, 58 min</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>0 d, 7 hr, 0 min, 45 s</t>
+          <t>7 hr</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 10 min, 39 s</t>
+          <t>10 min, 39 s</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1 d, 0 hr, 33 min, 11 s</t>
+          <t>1 d</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 23 min, 49 s</t>
+          <t>23 min, 49 s</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 0 min, 5 s</t>
+          <t>5 s</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 21 min, 21 s</t>
+          <t>21 min, 21 s</t>
         </is>
       </c>
     </row>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 8 min, 22 s</t>
+          <t>8 min, 22 s</t>
         </is>
       </c>
     </row>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 12 min, 20 s</t>
+          <t>12 min, 20 s</t>
         </is>
       </c>
     </row>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>2 d, 14 hr, 17 min, 37 s</t>
+          <t>2 d, 14 hr</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 0 min, 3 s</t>
+          <t>3 s</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>1 d, 11 hr, 33 min, 53 s</t>
+          <t>1 d, 11 hr</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 0 min, 6 s</t>
+          <t>6 s</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 0 min, 8 s</t>
+          <t>8 s</t>
         </is>
       </c>
     </row>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 0 min, 8 s</t>
+          <t>8 s</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 0 min, 6 s</t>
+          <t>6 s</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 0 min, 6 s</t>
+          <t>6 s</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 0 min, 6 s</t>
+          <t>6 s</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 0 min, 3 s</t>
+          <t>3 s</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 0 min, 4 s</t>
+          <t>4 s</t>
         </is>
       </c>
     </row>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>0 d, 1 hr, 14 min, 14 s</t>
+          <t>1 hr, 14 min</t>
         </is>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 10 min, 42 s</t>
+          <t>10 min, 42 s</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>0 d, 22 hr, 54 min, 38 s</t>
+          <t>22 hr, 54 min</t>
         </is>
       </c>
     </row>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 5 min, 4 s</t>
+          <t>5 min, 4 s</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>1 d, 8 hr, 51 min, 16 s</t>
+          <t>1 d, 8 hr</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>0 d, 11 hr, 44 min, 43 s</t>
+          <t>11 hr, 44 min</t>
         </is>
       </c>
     </row>
@@ -4464,7 +4464,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 0 min, 3 s</t>
+          <t>3 s</t>
         </is>
       </c>
     </row>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 3 min, 31 s</t>
+          <t>3 min, 31 s</t>
         </is>
       </c>
     </row>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 31 min, 54 s</t>
+          <t>31 min, 54 s</t>
         </is>
       </c>
     </row>
@@ -4752,7 +4752,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>0 d, 8 hr, 18 min, 44 s</t>
+          <t>8 hr, 18 min</t>
         </is>
       </c>
     </row>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>1 d, 12 hr, 24 min, 48 s</t>
+          <t>1 d, 12 hr</t>
         </is>
       </c>
     </row>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>0 d, 3 hr, 51 min, 38 s</t>
+          <t>3 hr, 51 min</t>
         </is>
       </c>
     </row>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 5 min, 53 s</t>
+          <t>5 min, 53 s</t>
         </is>
       </c>
     </row>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 15 min, 52 s</t>
+          <t>15 min, 52 s</t>
         </is>
       </c>
     </row>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>0 d, 9 hr, 43 min, 15 s</t>
+          <t>9 hr, 43 min</t>
         </is>
       </c>
     </row>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>1 d, 15 hr, 30 min, 7 s</t>
+          <t>1 d, 15 hr</t>
         </is>
       </c>
     </row>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>1 d, 19 hr, 6 min, 7 s</t>
+          <t>1 d, 19 hr</t>
         </is>
       </c>
     </row>
@@ -5528,7 +5528,7 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>1 d, 6 hr, 20 min, 10 s</t>
+          <t>1 d, 6 hr</t>
         </is>
       </c>
     </row>
@@ -5626,7 +5626,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>1 d, 4 hr, 25 min, 59 s</t>
+          <t>1 d, 4 hr</t>
         </is>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 3 min, 50 s</t>
+          <t>3 min, 50 s</t>
         </is>
       </c>
     </row>
@@ -5822,7 +5822,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 29 min, 12 s</t>
+          <t>29 min, 12 s</t>
         </is>
       </c>
     </row>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 10 min, 28 s</t>
+          <t>10 min, 28 s</t>
         </is>
       </c>
     </row>
@@ -6018,7 +6018,7 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 0 min, 4 s</t>
+          <t>4 s</t>
         </is>
       </c>
     </row>
@@ -6118,7 +6118,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 0 min, 3 s</t>
+          <t>3 s</t>
         </is>
       </c>
     </row>
@@ -6214,7 +6214,7 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 16 min, 55 s</t>
+          <t>16 min, 55 s</t>
         </is>
       </c>
     </row>
@@ -6314,7 +6314,7 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>0 d, 7 hr, 1 min, 45 s</t>
+          <t>7 hr, 1 min</t>
         </is>
       </c>
     </row>
@@ -6410,7 +6410,7 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>0 d, 9 hr, 39 min, 1 s</t>
+          <t>9 hr, 39 min</t>
         </is>
       </c>
     </row>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>0 d, 10 hr, 6 min, 20 s</t>
+          <t>10 hr, 6 min</t>
         </is>
       </c>
     </row>
@@ -6604,7 +6604,7 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 34 min, 9 s</t>
+          <t>34 min, 9 s</t>
         </is>
       </c>
     </row>
@@ -6698,7 +6698,7 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 22 min, 24 s</t>
+          <t>22 min, 24 s</t>
         </is>
       </c>
     </row>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>2 d, 9 hr, 27 min, 16 s</t>
+          <t>2 d, 9 hr</t>
         </is>
       </c>
     </row>
@@ -6890,7 +6890,7 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>0 d, 1 hr, 28 min, 5 s</t>
+          <t>1 hr, 28 min</t>
         </is>
       </c>
     </row>
@@ -6990,7 +6990,7 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>1 d, 6 hr, 59 min, 50 s</t>
+          <t>1 d, 6 hr</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7086,7 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>0 d, 2 hr, 3 min, 39 s</t>
+          <t>2 hr, 3 min</t>
         </is>
       </c>
     </row>
@@ -7184,7 +7184,7 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>0 d, 20 hr, 6 min, 25 s</t>
+          <t>20 hr, 6 min</t>
         </is>
       </c>
     </row>
@@ -7278,7 +7278,7 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>0 d, 2 hr, 41 min, 23 s</t>
+          <t>2 hr, 41 min</t>
         </is>
       </c>
     </row>
@@ -7376,7 +7376,7 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>1 d, 4 hr, 56 min, 43 s</t>
+          <t>1 d, 4 hr</t>
         </is>
       </c>
     </row>
@@ -7472,7 +7472,7 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>0 d, 20 hr, 27 min, 19 s</t>
+          <t>20 hr, 27 min</t>
         </is>
       </c>
     </row>
@@ -7570,7 +7570,7 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 9 min, 45 s</t>
+          <t>9 min, 45 s</t>
         </is>
       </c>
     </row>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 24 min, 18 s</t>
+          <t>24 min, 18 s</t>
         </is>
       </c>
     </row>
@@ -7760,7 +7760,7 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>0 d, 5 hr, 16 min, 30 s</t>
+          <t>5 hr, 16 min</t>
         </is>
       </c>
     </row>
@@ -7860,7 +7860,7 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>0 d, 21 hr, 51 min, 12 s</t>
+          <t>21 hr, 51 min</t>
         </is>
       </c>
     </row>
@@ -8378,7 +8378,7 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 7 min, 59 s</t>
+          <t>7 min, 59 s</t>
         </is>
       </c>
     </row>
@@ -8716,7 +8716,7 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>0 d, 0 hr, 12 min, 6 s</t>
+          <t>12 min, 6 s</t>
         </is>
       </c>
     </row>

--- a/output/prerunbooks.xlsx
+++ b/output/prerunbooks.xlsx
@@ -730,7 +730,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>12 hr, 10 min</t>
+          <t>+ 12h 10m</t>
         </is>
       </c>
     </row>
@@ -828,7 +828,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>13 hr, 48 min</t>
+          <t>+ 13h 48m</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>6 min, 9 s</t>
+          <t>+ 6m 9s</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>16 min</t>
+          <t>+ 16m</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>5 s</t>
+          <t>+ 5s</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>4 s</t>
+          <t>+ 4s</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1 d, 8 hr</t>
+          <t>+ 1d 8h</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>16 hr, 58 min</t>
+          <t>+ 16h 58m</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>7 hr</t>
+          <t>+ 7h</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>10 min, 39 s</t>
+          <t>+ 10m 39s</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1 d</t>
+          <t>+ 1d</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>23 min, 49 s</t>
+          <t>+ 23m 49s</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>5 s</t>
+          <t>+ 5s</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>21 min, 21 s</t>
+          <t>+ 21m 21s</t>
         </is>
       </c>
     </row>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>8 min, 22 s</t>
+          <t>+ 8m 22s</t>
         </is>
       </c>
     </row>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>12 min, 20 s</t>
+          <t>+ 12m 20s</t>
         </is>
       </c>
     </row>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>2 d, 14 hr</t>
+          <t>+ 2d 14h</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>3 s</t>
+          <t>+ 3s</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>1 d, 11 hr</t>
+          <t>+ 1d 11h</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>6 s</t>
+          <t>+ 6s</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>8 s</t>
+          <t>+ 8s</t>
         </is>
       </c>
     </row>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>8 s</t>
+          <t>+ 8s</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>6 s</t>
+          <t>+ 6s</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>6 s</t>
+          <t>+ 6s</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>6 s</t>
+          <t>+ 6s</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>3 s</t>
+          <t>+ 3s</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>4 s</t>
+          <t>+ 4s</t>
         </is>
       </c>
     </row>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>1 hr, 14 min</t>
+          <t>+ 1h 14m</t>
         </is>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>10 min, 42 s</t>
+          <t>+ 10m 42s</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>22 hr, 54 min</t>
+          <t>+ 22h 54m</t>
         </is>
       </c>
     </row>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>5 min, 4 s</t>
+          <t>+ 5m 4s</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>1 d, 8 hr</t>
+          <t>+ 1d 8h</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>11 hr, 44 min</t>
+          <t>+ 11h 44m</t>
         </is>
       </c>
     </row>
@@ -4464,7 +4464,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>3 s</t>
+          <t>+ 3s</t>
         </is>
       </c>
     </row>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>3 min, 31 s</t>
+          <t>+ 3m 31s</t>
         </is>
       </c>
     </row>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>31 min, 54 s</t>
+          <t>+ 31m 54s</t>
         </is>
       </c>
     </row>
@@ -4752,7 +4752,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>8 hr, 18 min</t>
+          <t>+ 8h 18m</t>
         </is>
       </c>
     </row>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>1 d, 12 hr</t>
+          <t>+ 1d 12h</t>
         </is>
       </c>
     </row>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>3 hr, 51 min</t>
+          <t>+ 3h 51m</t>
         </is>
       </c>
     </row>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>5 min, 53 s</t>
+          <t>+ 5m 53s</t>
         </is>
       </c>
     </row>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>15 min, 52 s</t>
+          <t>+ 15m 52s</t>
         </is>
       </c>
     </row>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>9 hr, 43 min</t>
+          <t>+ 9h 43m</t>
         </is>
       </c>
     </row>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>1 d, 15 hr</t>
+          <t>+ 1d 15h</t>
         </is>
       </c>
     </row>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>1 d, 19 hr</t>
+          <t>+ 1d 19h</t>
         </is>
       </c>
     </row>
@@ -5528,7 +5528,7 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>1 d, 6 hr</t>
+          <t>+ 1d 6h</t>
         </is>
       </c>
     </row>
@@ -5626,7 +5626,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>1 d, 4 hr</t>
+          <t>+ 1d 4h</t>
         </is>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>3 min, 50 s</t>
+          <t>+ 3m 50s</t>
         </is>
       </c>
     </row>
@@ -5822,7 +5822,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>29 min, 12 s</t>
+          <t>+ 29m 12s</t>
         </is>
       </c>
     </row>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>10 min, 28 s</t>
+          <t>+ 10m 28s</t>
         </is>
       </c>
     </row>
@@ -6018,7 +6018,7 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>4 s</t>
+          <t>+ 4s</t>
         </is>
       </c>
     </row>
@@ -6118,7 +6118,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>3 s</t>
+          <t>+ 3s</t>
         </is>
       </c>
     </row>
@@ -6214,7 +6214,7 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>16 min, 55 s</t>
+          <t>+ 16m 55s</t>
         </is>
       </c>
     </row>
@@ -6314,7 +6314,7 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>7 hr, 1 min</t>
+          <t>+ 7h 1m</t>
         </is>
       </c>
     </row>
@@ -6410,7 +6410,7 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>9 hr, 39 min</t>
+          <t>+ 9h 39m</t>
         </is>
       </c>
     </row>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>10 hr, 6 min</t>
+          <t>+ 10h 6m</t>
         </is>
       </c>
     </row>
@@ -6604,7 +6604,7 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>34 min, 9 s</t>
+          <t>+ 34m 9s</t>
         </is>
       </c>
     </row>
@@ -6698,7 +6698,7 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>22 min, 24 s</t>
+          <t>+ 22m 24s</t>
         </is>
       </c>
     </row>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>2 d, 9 hr</t>
+          <t>+ 2d 9h</t>
         </is>
       </c>
     </row>
@@ -6890,7 +6890,7 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>1 hr, 28 min</t>
+          <t>+ 1h 28m</t>
         </is>
       </c>
     </row>
@@ -6990,7 +6990,7 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>1 d, 6 hr</t>
+          <t>+ 1d 6h</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7086,7 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>2 hr, 3 min</t>
+          <t>+ 2h 3m</t>
         </is>
       </c>
     </row>
@@ -7184,7 +7184,7 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>20 hr, 6 min</t>
+          <t>+ 20h 6m</t>
         </is>
       </c>
     </row>
@@ -7278,7 +7278,7 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>2 hr, 41 min</t>
+          <t>+ 2h 41m</t>
         </is>
       </c>
     </row>
@@ -7376,7 +7376,7 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>1 d, 4 hr</t>
+          <t>+ 1d 4h</t>
         </is>
       </c>
     </row>
@@ -7472,7 +7472,7 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>20 hr, 27 min</t>
+          <t>+ 20h 27m</t>
         </is>
       </c>
     </row>
@@ -7570,7 +7570,7 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>9 min, 45 s</t>
+          <t>+ 9m 45s</t>
         </is>
       </c>
     </row>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>24 min, 18 s</t>
+          <t>+ 24m 18s</t>
         </is>
       </c>
     </row>
@@ -7760,7 +7760,7 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>5 hr, 16 min</t>
+          <t>+ 5h 16m</t>
         </is>
       </c>
     </row>
@@ -7860,7 +7860,7 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>21 hr, 51 min</t>
+          <t>+ 21h 51m</t>
         </is>
       </c>
     </row>
@@ -8378,7 +8378,7 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>7 min, 59 s</t>
+          <t>+ 7m 59s</t>
         </is>
       </c>
     </row>
@@ -8716,7 +8716,7 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>12 min, 6 s</t>
+          <t>+ 12m 6s</t>
         </is>
       </c>
     </row>
